--- a/data/trans_camb/P18_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P18_4_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-20,29</t>
+          <t>-20,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-18,86</t>
+          <t>-18,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-22,22</t>
+          <t>-22,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>59,75</t>
+          <t>-24,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-19,37</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,91</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-17,05</t>
+          <t>-19,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,75</t>
+          <t>-14,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-19,81</t>
+          <t>-17,03</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-16,27</t>
+          <t>-21,44</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,77</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-19,57</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-16,1</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>-19,51</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>58,23</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-22,95</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,88; -14,96</t>
+          <t>-24,6; -13,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,99; -13,64</t>
+          <t>-23,83; -12,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,41; -18,02</t>
+          <t>-27,03; -17,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>54,5; 64,21</t>
+          <t>-29,31; -19,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,09; -15,33</t>
+          <t>-1,11; 5,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,12; -9,78</t>
+          <t>-2,88; 3,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,11; -13,19</t>
+          <t>-23,32; -14,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,54; 60,54</t>
+          <t>-18,5; -9,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,18; -16,7</t>
+          <t>-21,07; -12,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-20,14; -13,05</t>
+          <t>-25,5; -17,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-22,71; -16,67</t>
+          <t>-1,71; 5,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,08; 61,25</t>
+          <t>-4,89; 1,83</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-23,11; -16,11</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-19,3; -12,71</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-22,49; -16,23</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-26,52; -19,97</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 4,39</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 1,38</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-64,78%</t>
+          <t>-64,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-60,2%</t>
+          <t>-58,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-70,94%</t>
+          <t>-71,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>190,76%</t>
+          <t>-78,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-63,25%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-45,43%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-55,68%</t>
+          <t>-62,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>185,27%</t>
+          <t>-45,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-63,99%</t>
+          <t>-55,6%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-52,55%</t>
+          <t>-69,99%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-63,02%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>188,08%</t>
+          <t>-13,99%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-63,22%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-52,01%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-63,01%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-74,12%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>25,17%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-7,22%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-74,55; -50,33</t>
+          <t>-73,19; -47,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-69,16; -45,56</t>
+          <t>-69,18; -43,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-78,24; -62,1</t>
+          <t>-77,72; -60,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>151,59; 231,36</t>
+          <t>-85,1; -68,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,62; -54,31</t>
+          <t>-14,68; 117,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,78; -32,89</t>
+          <t>-28,28; 45,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,43; -46,38</t>
+          <t>-71,01; -52,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>155,81; 217,17</t>
+          <t>-55,55; -35,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-71,03; -56,56</t>
+          <t>-63,85; -44,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-60,78; -44,12</t>
+          <t>-77,26; -59,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-68,27; -56,44</t>
+          <t>-15,94; 68,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>164,23; 213,82</t>
+          <t>-33,74; 17,66</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-70,58; -54,18</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-59,11; -42,46</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-68,61; -56,21</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-79,96; -67,51</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 64,7</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-25,11; 13,94</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-20,88</t>
+          <t>-20,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,72</t>
+          <t>-13,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-17,94</t>
+          <t>-17,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>62,74</t>
+          <t>-19,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,76</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,84</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-16,38</t>
+          <t>-20,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,46</t>
+          <t>-12,92</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-20,82</t>
+          <t>-16,16</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-13,33</t>
+          <t>-22,6</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-17,19</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>56,3</t>
+          <t>-11,34</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-20,57</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-13,41</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-17,04</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-21,15</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-6,64</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,65; -15,77</t>
+          <t>-25,95; -16,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -7,94</t>
+          <t>-19,28; -7,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,77; -12,72</t>
+          <t>-23,15; -12,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55,78; 68,47</t>
+          <t>-25,11; -14,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,02; -15,66</t>
+          <t>-2,42; 6,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,08; -7,83</t>
+          <t>-8,25; 3,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,62; -11,21</t>
+          <t>-25,06; -15,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,41; 55,79</t>
+          <t>-18,36; -8,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,36; -17,44</t>
+          <t>-21,23; -10,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-17,24; -9,35</t>
+          <t>-27,7; -18,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-20,8; -13,49</t>
+          <t>-4,11; 6,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>50,94; 60,9</t>
+          <t>-18,91; -3,54</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-24,09; -17,19</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-17,01; -9,91</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-20,71; -13,24</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-24,74; -17,82</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 4,41</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-11,32; -1,96</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-78,82%</t>
+          <t>-78,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-51,78%</t>
+          <t>-52,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-67,7%</t>
+          <t>-67,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>236,81%</t>
+          <t>-74,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-67,14%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,55%</t>
+          <t>-22,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-52,99%</t>
+          <t>-66,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>160,01%</t>
+          <t>-41,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-72,45%</t>
+          <t>-52,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-46,38%</t>
+          <t>-73,1%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-59,82%</t>
+          <t>-0,34%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>195,9%</t>
+          <t>-57,79%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-71,59%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-46,65%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-59,28%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-73,6%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>9,7%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-44,39%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-86,55; -68,02</t>
+          <t>-85,69; -66,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-64,54; -31,93</t>
+          <t>-65,36; -33,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,7; -51,49</t>
+          <t>-77,09; -51,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>182,63; 296,83</t>
+          <t>-83,33; -62,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,92; -54,96</t>
+          <t>-31,67; 128,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,08; -27,71</t>
+          <t>-57,91; 47,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,96; -38,15</t>
+          <t>-75,31; -53,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>121,41; 199,6</t>
+          <t>-53,53; -28,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-78,51; -63,87</t>
+          <t>-63,19; -36,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-55,5; -35,17</t>
+          <t>-81,75; -64,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-67,7; -49,2</t>
+          <t>-44,27; 94,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>164,43; 230,13</t>
+          <t>-76,99; -18,78</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-77,74; -62,98</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-55,0; -36,02</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-67,47; -48,35</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-79,52; -66,55</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-25,78; 67,36</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-62,1; -13,42</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-26,93</t>
+          <t>-27,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-19,16</t>
+          <t>-18,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-25,5</t>
+          <t>-25,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-20,99</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-23,33</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-19,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-26,75</t>
+          <t>-22,05</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-18,82</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-26,78</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-31,27</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-25,15</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-19,26</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-26,08</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-25,01</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-18,83</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-25,98</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-26,06</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-36,99; -15,66</t>
+          <t>-37,89; -17,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-30,07; -9,01</t>
+          <t>-29,59; -7,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-37,09; -16,4</t>
+          <t>-35,69; -14,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-32,18; -5,73</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-32,76; -13,79</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,4; -9,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-34,95; -17,25</t>
+          <t>-32,1; -11,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-28,62; -8,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-35,95; -17,23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-39,54; -23,23</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-32,02; -17,62</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-26,62; -12,08</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-32,36; -19,31</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-31,97; -17,73</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-26,03; -11,34</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-32,41; -19,3</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-32,69; -18,06</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-79,05%</t>
+          <t>-81,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-56,24%</t>
+          <t>-55,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-74,87%</t>
+          <t>-74,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-61,63%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-60,43%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-50,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-69,29%</t>
+          <t>-57,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-48,75%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-69,38%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-80,99%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-69,31%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-53,07%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-71,87%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-68,92%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-51,9%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-71,61%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-71,83%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-91,53; -49,39</t>
+          <t>-92,53; -61,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,68; -28,85</t>
+          <t>-72,76; -22,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,66; -54,29</t>
+          <t>-86,11; -51,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-79,81; -9,71</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-75,18; -39,33</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,85; -28,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-81,85; -53,2</t>
+          <t>-73,52; -33,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-64,85; -25,6</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-81,66; -49,7</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-91,07; -64,86</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-80,47; -53,04</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-66,01; -37,34</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-81,29; -60,18</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-79,73; -53,68</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-65,12; -34,86</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-80,44; -59,56</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-83,35; -52,9</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-21,33</t>
+          <t>-21,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-16,84</t>
+          <t>-16,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-20,91</t>
+          <t>-20,86</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>60,91</t>
+          <t>-22,18</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-20,34</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,11</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-17,88</t>
+          <t>-19,94</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>54,24</t>
+          <t>-14,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-20,82</t>
+          <t>-17,79</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-15,46</t>
+          <t>-22,98</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-19,36</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>57,54</t>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-20,59</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-15,35</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-19,29</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-22,6</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-24,75; -17,95</t>
+          <t>-24,62; -17,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,6; -13,31</t>
+          <t>-20,09; -12,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-24,23; -17,25</t>
+          <t>-24,0; -17,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>57,3; 64,02</t>
+          <t>-25,5; -19,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,27; -17,31</t>
+          <t>-1,44; 3,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,26; -10,99</t>
+          <t>-3,18; 2,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-20,68; -14,66</t>
+          <t>-22,92; -16,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50,62; 57,26</t>
+          <t>-17,35; -11,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-22,99; -18,47</t>
+          <t>-21,18; -15,07</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-17,71; -13,08</t>
+          <t>-25,78; -19,8</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-21,7; -17,18</t>
+          <t>-0,88; 4,3</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>55,19; 59,94</t>
+          <t>-7,03; -0,85</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-22,91; -18,13</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-17,65; -12,85</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-21,63; -17,05</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-25,07; -20,38</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 3,49</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 0,11</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-71,75%</t>
+          <t>-71,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-56,65%</t>
+          <t>-55,83%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-70,34%</t>
+          <t>-70,17%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>204,89%</t>
+          <t>-74,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-64,32%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-44,62%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-56,54%</t>
+          <t>-63,04%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>171,5%</t>
+          <t>-44,74%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-67,82%</t>
+          <t>-56,25%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-50,35%</t>
+          <t>-72,67%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-63,06%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>187,43%</t>
+          <t>-27,16%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-67,07%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-50,01%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-62,82%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-73,6%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-18,03%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-77,69; -62,88</t>
+          <t>-77,66; -62,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,36; -47,7</t>
+          <t>-63,8; -46,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-76,55; -63,48</t>
+          <t>-75,91; -62,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>177,43; 235,77</t>
+          <t>-80,56; -66,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-70,27; -57,34</t>
+          <t>-16,23; 60,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,9; -36,7</t>
+          <t>-30,51; 27,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-62,24; -48,42</t>
+          <t>-69,05; -55,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>151,15; 193,28</t>
+          <t>-52,03; -36,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-72,39; -62,61</t>
+          <t>-63,0; -49,01</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-55,46; -44,49</t>
+          <t>-77,89; -66,08</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-67,71; -58,4</t>
+          <t>-9,31; 58,5</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>170,74; 206,04</t>
+          <t>-44,77; -7,16</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-71,38; -60,87</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-55,66; -43,33</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-67,24; -57,47</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-77,77; -67,77</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 48,51</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-31,55; 1,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
